--- a/donnees_graph.xlsx
+++ b/donnees_graph.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TXG\GitHub\S3APP6r-GRO300\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{84983F58-7610-4160-B396-F585C83D6F1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19465493-D714-4F9A-942E-174515B5CAB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020"/>
+    <workbookView xWindow="-90" yWindow="0" windowWidth="9780" windowHeight="10890" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="donnees" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>motor_id</t>
   </si>
@@ -36,11 +36,14 @@
   <si>
     <t>cmd</t>
   </si>
+  <si>
+    <t>vel_voulue</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1943,6 +1946,31 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Position selon le temps</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3333,7 +3361,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>donnees!$E$1</c:f>
+              <c:f>donnees!$F$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3896,7 +3924,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>donnees!$E$2:$E$178</c:f>
+              <c:f>donnees!$F$2:$F$178</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="177"/>
@@ -4628,6 +4656,2550 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-CA" baseline="0"/>
+              <a:t>Vitesse Voule et Vitesse sur le temps</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-CA"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>donnees!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>vel</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>donnees!$B$2:$B$178</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="177"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>207</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>308</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>409</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>510</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>611</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>712</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>813</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>914</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1015</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1116</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1217</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1318</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1419</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1520</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1622</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1723</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1824</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1925</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2026</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2127</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2228</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2329</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2430</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2531</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2632</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2733</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2834</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2935</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>3036</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>3137</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>3238</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>3339</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>3440</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>3542</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>3643</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>3744</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>3845</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>3946</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>4047</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>4148</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>4249</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>4350</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>4451</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>4552</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>4653</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>4754</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>4855</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>4956</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>5057</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>5158</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>5259</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>5360</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>5462</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>5563</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>5664</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>5765</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>5866</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>5967</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>6068</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>6169</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>6270</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>6371</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>6472</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>6573</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>6674</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>6775</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>6876</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>6977</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>7078</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>7179</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>7280</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>7382</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>7483</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>7584</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>7685</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>7786</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>7887</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>7988</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>8089</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>8190</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>8291</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>8392</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>8493</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>8594</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>8695</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>8796</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>8897</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>8998</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>9099</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>9200</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>9302</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>9403</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>9504</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>9605</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>9706</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>9807</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>9908</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>10009</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>10110</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>10211</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>10312</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>10413</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>10514</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>10615</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>10716</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>10817</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>10918</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>11019</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>11120</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>11222</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>11323</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>11424</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>11525</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>11626</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>11727</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>11828</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>11929</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>12030</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>12131</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>12232</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>12333</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>12434</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>12535</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>12636</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>12737</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>12838</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>12939</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>13040</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>13142</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>13243</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>13344</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>13445</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>13546</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>13647</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>13748</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>13849</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>13950</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>14051</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>14152</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>14253</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>14354</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>14455</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>14556</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>14657</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>14758</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>14859</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>14960</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>15062</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>15163</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>15264</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>15365</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>15466</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>15567</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>15668</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>15769</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>15870</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>15971</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>16072</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>16173</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>16274</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>16375</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>16476</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>16577</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>16678</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>16779</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>16880</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>16982</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>17083</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>17184</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>17285</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>17386</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>17487</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>17588</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>17689</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>17790</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>17891</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>donnees!$D$2:$D$178</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="177"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.120627</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.18507499999999999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.17166100000000001</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.15241399999999999</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.15774299999999999</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.13789899999999999</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.15310299999999999</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.148785</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.16916300000000001</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.21410599999999999</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.23025000000000001</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.22862199999999999</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.213417</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.21410499999999999</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.22733600000000001</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.24313699999999999</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.24904599999999999</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.239508</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.29133700000000001</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.30845699999999998</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.30620599999999998</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.31621300000000002</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.30156699999999997</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.28668399999999999</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.28193800000000002</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.30845699999999998</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.33832699999999999</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.32297300000000001</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.32476500000000003</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.33385999999999999</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.343024</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.34474700000000003</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.38531500000000002</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.40643699999999999</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.38971800000000001</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.37740699999999999</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.37115999999999999</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.37014999999999998</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.40411399999999997</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.402808</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.38971800000000001</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.39917900000000001</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.39435599999999998</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.43547000000000002</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.44539200000000001</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.43909900000000002</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.42290699999999998</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.42095300000000002</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.45579900000000001</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.46450200000000003</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.44539200000000001</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.43909900000000002</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.45931</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.51167399999999996</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.51218799999999998</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.50078800000000001</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.46989799999999998</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.48627399999999998</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.50106499999999998</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.48150700000000002</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.48250799999999999</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.50078800000000001</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.55447900000000006</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.555226</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.54507899999999998</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.50441899999999995</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.55210199999999998</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.54433900000000002</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.52158599999999999</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.52982099999999999</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.57327399999999995</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.59151500000000001</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.55674400000000002</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.53708</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.575295</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.57336900000000002</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0.54507899999999998</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.56248200000000004</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0.60776799999999997</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0.61328899999999997</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0.56138299999999997</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0.56611100000000003</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0.59385200000000005</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0.59151299999999996</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0.57797200000000004</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0.63868899999999995</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0.64845799999999998</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>0.61328099999999997</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>0.60777099999999995</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>0.63868899999999995</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>0.61705500000000002</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>0.60965899999999995</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>0.66255200000000003</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>0.67860200000000004</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>0.63905900000000004</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>0.63506300000000004</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>0.64489300000000005</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>0.62883500000000003</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>0.63561599999999996</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>0.69312399999999996</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>0.68135100000000004</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>0.64231400000000005</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>0.69075299999999995</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>0.66771999999999998</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>0.64953499999999997</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>0.68949400000000005</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>0.69545699999999999</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>0.68223100000000003</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>0.67664999999999997</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>0.69674999999999998</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>0.67273099999999997</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>0.68223699999999998</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>0.70983700000000005</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>0.68949400000000005</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>0.66255900000000001</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>0.72215499999999999</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>0.69128299999999998</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>0.68949400000000005</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>0.73768400000000001</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>0.72941100000000003</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>0.68664999999999998</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>0.73666100000000001</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>0.70954499999999998</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>0.70763699999999996</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>0.76123300000000005</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>0.76207199999999997</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>0.70055999999999996</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>0.72577999999999998</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>0.71911400000000003</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>0.72215499999999999</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>0.765934</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>0.76207199999999997</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>0.733039</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>0.75481600000000004</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>0.76087700000000003</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>0.75459799999999999</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>0.77478899999999995</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>0.75118499999999999</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>0.73773999999999995</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>0.76207199999999997</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>0.77062900000000001</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>0.78384600000000004</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>0.78407300000000002</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>0.74755400000000005</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>0.76123300000000005</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>0.78020800000000001</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>0.75652299999999995</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>0.82013800000000003</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>0.78870799999999996</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>0.76933300000000004</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>0.77015400000000001</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>0.76569799999999999</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>0.79883400000000004</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>0.83827200000000002</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>0.77943700000000005</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>0.78747199999999995</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>0.77015400000000001</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>0.75844599999999995</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>0.81191000000000002</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>0.80924600000000002</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>0.76123600000000002</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>0.820133</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>0.789412</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>0.80199399999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8EB4-4A7B-8DE3-8F4626073265}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>donnees!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>vel_voulue</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>donnees!$B$2:$B$178</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="177"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>207</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>308</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>409</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>510</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>611</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>712</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>813</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>914</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1015</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1116</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1217</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1318</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1419</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1520</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1622</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1723</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1824</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1925</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2026</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2127</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2228</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2329</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2430</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2531</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2632</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2733</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2834</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2935</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>3036</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>3137</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>3238</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>3339</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>3440</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>3542</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>3643</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>3744</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>3845</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>3946</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>4047</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>4148</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>4249</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>4350</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>4451</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>4552</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>4653</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>4754</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>4855</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>4956</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>5057</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>5158</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>5259</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>5360</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>5462</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>5563</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>5664</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>5765</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>5866</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>5967</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>6068</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>6169</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>6270</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>6371</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>6472</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>6573</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>6674</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>6775</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>6876</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>6977</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>7078</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>7179</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>7280</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>7382</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>7483</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>7584</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>7685</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>7786</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>7887</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>7988</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>8089</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>8190</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>8291</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>8392</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>8493</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>8594</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>8695</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>8796</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>8897</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>8998</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>9099</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>9200</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>9302</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>9403</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>9504</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>9605</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>9706</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>9807</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>9908</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>10009</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>10110</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>10211</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>10312</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>10413</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>10514</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>10615</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>10716</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>10817</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>10918</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>11019</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>11120</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>11222</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>11323</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>11424</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>11525</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>11626</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>11727</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>11828</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>11929</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>12030</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>12131</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>12232</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>12333</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>12434</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>12535</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>12636</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>12737</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>12838</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>12939</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>13040</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>13142</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>13243</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>13344</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>13445</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>13546</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>13647</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>13748</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>13849</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>13950</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>14051</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>14152</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>14253</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>14354</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>14455</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>14556</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>14657</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>14758</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>14859</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>14960</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>15062</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>15163</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>15264</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>15365</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>15466</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>15567</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>15668</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>15769</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>15870</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>15971</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>16072</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>16173</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>16274</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>16375</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>16476</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>16577</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>16678</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>16779</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>16880</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>16982</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>17083</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>17184</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>17285</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>17386</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>17487</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>17588</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>17689</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>17790</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>17891</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>donnees!$E$2:$E$178</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="177"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-8EB4-4A7B-8DE3-8F4626073265}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1213807168"/>
+        <c:axId val="1213793728"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1213807168"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1213793728"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1213793728"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1213807168"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -4709,6 +7281,46 @@
 </file>
 
 <file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -6296,17 +8908,533 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>212725</xdr:colOff>
       <xdr:row>18</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
+      <xdr:col>14</xdr:col>
       <xdr:colOff>517525</xdr:colOff>
       <xdr:row>33</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
@@ -6336,16 +9464,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>98425</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>327025</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>53975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>403225</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>22225</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>34925</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6372,16 +9500,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>307975</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>149225</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>358775</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>3175</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>130175</xdr:rowOff>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>53975</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6401,6 +9529,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>469900</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>165100</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B52CDD5C-A8A5-51C6-E352-8A515818A252}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -6705,16 +9869,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E178"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F178"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="50" workbookViewId="0">
-      <selection activeCell="E1" activeCellId="1" sqref="B1:B1048576 E1:E1048576"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="50" workbookViewId="0">
+      <selection activeCell="P7" sqref="P7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -6728,10 +9892,13 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>0</v>
       </c>
@@ -6747,8 +9914,11 @@
       <c r="E2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>0</v>
       </c>
@@ -6764,8 +9934,11 @@
       <c r="E3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>0</v>
       </c>
@@ -6781,8 +9954,11 @@
       <c r="E4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>0</v>
       </c>
@@ -6798,8 +9974,11 @@
       <c r="E5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>0</v>
       </c>
@@ -6815,8 +9994,11 @@
       <c r="E6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>0</v>
       </c>
@@ -6832,8 +10014,11 @@
       <c r="E7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>0</v>
       </c>
@@ -6849,8 +10034,11 @@
       <c r="E8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>0</v>
       </c>
@@ -6866,8 +10054,11 @@
       <c r="E9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>0</v>
       </c>
@@ -6883,8 +10074,11 @@
       <c r="E10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>0</v>
       </c>
@@ -6900,8 +10094,11 @@
       <c r="E11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>0</v>
       </c>
@@ -6917,8 +10114,11 @@
       <c r="E12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>0</v>
       </c>
@@ -6934,8 +10134,11 @@
       <c r="E13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>0</v>
       </c>
@@ -6949,10 +10152,13 @@
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>0</v>
       </c>
@@ -6966,10 +10172,13 @@
         <v>0.120627</v>
       </c>
       <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
         <v>6.6000000000000003E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>0</v>
       </c>
@@ -6983,10 +10192,13 @@
         <v>0.18507499999999999</v>
       </c>
       <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
         <v>6.6000000000000003E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>0</v>
       </c>
@@ -7000,10 +10212,13 @@
         <v>0.17166100000000001</v>
       </c>
       <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
         <v>5.9379000000000001E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>0</v>
       </c>
@@ -7017,10 +10232,13 @@
         <v>0.15241399999999999</v>
       </c>
       <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
         <v>5.9379000000000001E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>0</v>
       </c>
@@ -7034,10 +10252,13 @@
         <v>0.15774299999999999</v>
       </c>
       <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
         <v>6.5856999999999999E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>0</v>
       </c>
@@ -7051,10 +10272,13 @@
         <v>0.13789899999999999</v>
       </c>
       <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
         <v>6.5856999999999999E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>0</v>
       </c>
@@ -7068,10 +10292,13 @@
         <v>0.15310299999999999</v>
       </c>
       <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
         <v>7.3056999999999997E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>0</v>
       </c>
@@ -7085,10 +10312,13 @@
         <v>0.148785</v>
       </c>
       <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22">
         <v>7.3056999999999997E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>0</v>
       </c>
@@ -7102,10 +10332,13 @@
         <v>0.16916300000000001</v>
       </c>
       <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23">
         <v>7.7588000000000004E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>0</v>
       </c>
@@ -7119,10 +10352,13 @@
         <v>0.21410599999999999</v>
       </c>
       <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24">
         <v>7.7588000000000004E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>0</v>
       </c>
@@ -7136,10 +10372,13 @@
         <v>0.23025000000000001</v>
       </c>
       <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25">
         <v>7.8520000000000006E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>0</v>
       </c>
@@ -7153,10 +10392,13 @@
         <v>0.22862199999999999</v>
       </c>
       <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26">
         <v>7.8520000000000006E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>0</v>
       </c>
@@ -7170,10 +10412,13 @@
         <v>0.213417</v>
       </c>
       <c r="E27">
+        <v>1</v>
+      </c>
+      <c r="F27">
         <v>8.1556000000000003E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>0</v>
       </c>
@@ -7187,10 +10432,13 @@
         <v>0.21410499999999999</v>
       </c>
       <c r="E28">
+        <v>1</v>
+      </c>
+      <c r="F28">
         <v>8.1556000000000003E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>0</v>
       </c>
@@ -7204,10 +10452,13 @@
         <v>0.22733600000000001</v>
       </c>
       <c r="E29">
+        <v>1</v>
+      </c>
+      <c r="F29">
         <v>8.7256E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>0</v>
       </c>
@@ -7221,10 +10472,13 @@
         <v>0.24313699999999999</v>
       </c>
       <c r="E30">
+        <v>1</v>
+      </c>
+      <c r="F30">
         <v>8.7256E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>0</v>
       </c>
@@ -7238,10 +10492,13 @@
         <v>0.24904599999999999</v>
       </c>
       <c r="E31">
+        <v>1</v>
+      </c>
+      <c r="F31">
         <v>9.0475E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>0</v>
       </c>
@@ -7255,10 +10512,13 @@
         <v>0.239508</v>
       </c>
       <c r="E32">
+        <v>1</v>
+      </c>
+      <c r="F32">
         <v>9.0475E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>0</v>
       </c>
@@ -7272,10 +10532,13 @@
         <v>0.29133700000000001</v>
       </c>
       <c r="E33">
+        <v>1</v>
+      </c>
+      <c r="F33">
         <v>9.3989000000000003E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>0</v>
       </c>
@@ -7289,10 +10552,13 @@
         <v>0.30845699999999998</v>
       </c>
       <c r="E34">
+        <v>1</v>
+      </c>
+      <c r="F34">
         <v>9.3989000000000003E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>0</v>
       </c>
@@ -7306,10 +10572,13 @@
         <v>0.30620599999999998</v>
       </c>
       <c r="E35">
+        <v>1</v>
+      </c>
+      <c r="F35">
         <v>9.5494999999999997E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>0</v>
       </c>
@@ -7323,10 +10592,13 @@
         <v>0.31621300000000002</v>
       </c>
       <c r="E36">
+        <v>1</v>
+      </c>
+      <c r="F36">
         <v>9.5494999999999997E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>0</v>
       </c>
@@ -7340,10 +10612,13 @@
         <v>0.30156699999999997</v>
       </c>
       <c r="E37">
+        <v>1</v>
+      </c>
+      <c r="F37">
         <v>9.7495999999999999E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>0</v>
       </c>
@@ -7357,10 +10632,13 @@
         <v>0.28668399999999999</v>
       </c>
       <c r="E38">
+        <v>1</v>
+      </c>
+      <c r="F38">
         <v>9.7495999999999999E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>0</v>
       </c>
@@ -7374,10 +10652,13 @@
         <v>0.28193800000000002</v>
       </c>
       <c r="E39">
+        <v>1</v>
+      </c>
+      <c r="F39">
         <v>0.10666</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>0</v>
       </c>
@@ -7391,10 +10672,13 @@
         <v>0.30845699999999998</v>
       </c>
       <c r="E40">
+        <v>1</v>
+      </c>
+      <c r="F40">
         <v>0.10666</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>0</v>
       </c>
@@ -7408,10 +10692,13 @@
         <v>0.33832699999999999</v>
       </c>
       <c r="E41">
+        <v>1</v>
+      </c>
+      <c r="F41">
         <v>0.10587199999999999</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>0</v>
       </c>
@@ -7425,10 +10712,13 @@
         <v>0.32297300000000001</v>
       </c>
       <c r="E42">
+        <v>1</v>
+      </c>
+      <c r="F42">
         <v>0.10587199999999999</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>0</v>
       </c>
@@ -7442,10 +10732,13 @@
         <v>0.32476500000000003</v>
       </c>
       <c r="E43">
+        <v>1</v>
+      </c>
+      <c r="F43">
         <v>0.111059</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>0</v>
       </c>
@@ -7459,10 +10752,13 @@
         <v>0.33385999999999999</v>
       </c>
       <c r="E44">
+        <v>1</v>
+      </c>
+      <c r="F44">
         <v>0.111059</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>0</v>
       </c>
@@ -7476,10 +10772,13 @@
         <v>0.343024</v>
       </c>
       <c r="E45">
+        <v>1</v>
+      </c>
+      <c r="F45">
         <v>0.113965</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>0</v>
       </c>
@@ -7493,10 +10792,13 @@
         <v>0.34474700000000003</v>
       </c>
       <c r="E46">
+        <v>1</v>
+      </c>
+      <c r="F46">
         <v>0.113965</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>0</v>
       </c>
@@ -7510,10 +10812,13 @@
         <v>0.38531500000000002</v>
       </c>
       <c r="E47">
+        <v>1</v>
+      </c>
+      <c r="F47">
         <v>0.116905</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A48">
         <v>0</v>
       </c>
@@ -7527,10 +10832,13 @@
         <v>0.40643699999999999</v>
       </c>
       <c r="E48">
+        <v>1</v>
+      </c>
+      <c r="F48">
         <v>0.116905</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A49">
         <v>0</v>
       </c>
@@ -7544,10 +10852,13 @@
         <v>0.38971800000000001</v>
       </c>
       <c r="E49">
+        <v>1</v>
+      </c>
+      <c r="F49">
         <v>0.116451</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A50">
         <v>0</v>
       </c>
@@ -7561,10 +10872,13 @@
         <v>0.37740699999999999</v>
       </c>
       <c r="E50">
+        <v>1</v>
+      </c>
+      <c r="F50">
         <v>0.116451</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A51">
         <v>0</v>
       </c>
@@ -7578,10 +10892,13 @@
         <v>0.37115999999999999</v>
       </c>
       <c r="E51">
+        <v>1</v>
+      </c>
+      <c r="F51">
         <v>0.122152</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A52">
         <v>0</v>
       </c>
@@ -7595,10 +10912,13 @@
         <v>0.37014999999999998</v>
       </c>
       <c r="E52">
+        <v>1</v>
+      </c>
+      <c r="F52">
         <v>0.122152</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A53">
         <v>0</v>
       </c>
@@ -7612,10 +10932,13 @@
         <v>0.40411399999999997</v>
       </c>
       <c r="E53">
+        <v>1</v>
+      </c>
+      <c r="F53">
         <v>0.124849</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A54">
         <v>0</v>
       </c>
@@ -7629,10 +10952,13 @@
         <v>0.402808</v>
       </c>
       <c r="E54">
+        <v>1</v>
+      </c>
+      <c r="F54">
         <v>0.124849</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A55">
         <v>0</v>
       </c>
@@ -7646,10 +10972,13 @@
         <v>0.38971800000000001</v>
       </c>
       <c r="E55">
+        <v>1</v>
+      </c>
+      <c r="F55">
         <v>0.12845799999999999</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A56">
         <v>0</v>
       </c>
@@ -7663,10 +10992,13 @@
         <v>0.39917900000000001</v>
       </c>
       <c r="E56">
+        <v>1</v>
+      </c>
+      <c r="F56">
         <v>0.12845799999999999</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A57">
         <v>0</v>
       </c>
@@ -7680,10 +11012,13 @@
         <v>0.39435599999999998</v>
       </c>
       <c r="E57">
+        <v>1</v>
+      </c>
+      <c r="F57">
         <v>0.13087199999999999</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A58">
         <v>0</v>
       </c>
@@ -7697,10 +11032,13 @@
         <v>0.43547000000000002</v>
       </c>
       <c r="E58">
+        <v>1</v>
+      </c>
+      <c r="F58">
         <v>0.13087199999999999</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A59">
         <v>0</v>
       </c>
@@ -7714,10 +11052,13 @@
         <v>0.44539200000000001</v>
       </c>
       <c r="E59">
+        <v>1</v>
+      </c>
+      <c r="F59">
         <v>0.12887599999999999</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A60">
         <v>0</v>
       </c>
@@ -7731,10 +11072,13 @@
         <v>0.43909900000000002</v>
       </c>
       <c r="E60">
+        <v>1</v>
+      </c>
+      <c r="F60">
         <v>0.12887599999999999</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A61">
         <v>0</v>
       </c>
@@ -7748,10 +11092,13 @@
         <v>0.42290699999999998</v>
       </c>
       <c r="E61">
+        <v>1</v>
+      </c>
+      <c r="F61">
         <v>0.13541400000000001</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A62">
         <v>0</v>
       </c>
@@ -7765,10 +11112,13 @@
         <v>0.42095300000000002</v>
       </c>
       <c r="E62">
+        <v>1</v>
+      </c>
+      <c r="F62">
         <v>0.13541400000000001</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A63">
         <v>0</v>
       </c>
@@ -7782,10 +11132,13 @@
         <v>0.45579900000000001</v>
       </c>
       <c r="E63">
+        <v>1</v>
+      </c>
+      <c r="F63">
         <v>0.14083999999999999</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A64">
         <v>0</v>
       </c>
@@ -7799,10 +11152,13 @@
         <v>0.46450200000000003</v>
       </c>
       <c r="E64">
+        <v>1</v>
+      </c>
+      <c r="F64">
         <v>0.14083999999999999</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A65">
         <v>0</v>
       </c>
@@ -7816,10 +11172,13 @@
         <v>0.44539200000000001</v>
       </c>
       <c r="E65">
+        <v>1</v>
+      </c>
+      <c r="F65">
         <v>0.14091300000000001</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A66">
         <v>0</v>
       </c>
@@ -7833,10 +11192,13 @@
         <v>0.43909900000000002</v>
       </c>
       <c r="E66">
+        <v>1</v>
+      </c>
+      <c r="F66">
         <v>0.14091300000000001</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A67">
         <v>0</v>
       </c>
@@ -7850,10 +11212,13 @@
         <v>0.45931</v>
       </c>
       <c r="E67">
+        <v>1</v>
+      </c>
+      <c r="F67">
         <v>0.14521300000000001</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A68">
         <v>0</v>
       </c>
@@ -7867,10 +11232,13 @@
         <v>0.51167399999999996</v>
       </c>
       <c r="E68">
+        <v>1</v>
+      </c>
+      <c r="F68">
         <v>0.14521300000000001</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A69">
         <v>0</v>
       </c>
@@ -7884,10 +11252,13 @@
         <v>0.51218799999999998</v>
       </c>
       <c r="E69">
+        <v>1</v>
+      </c>
+      <c r="F69">
         <v>0.14454600000000001</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A70">
         <v>0</v>
       </c>
@@ -7901,10 +11272,13 @@
         <v>0.50078800000000001</v>
       </c>
       <c r="E70">
+        <v>1</v>
+      </c>
+      <c r="F70">
         <v>0.14454600000000001</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A71">
         <v>0</v>
       </c>
@@ -7918,10 +11292,13 @@
         <v>0.46989799999999998</v>
       </c>
       <c r="E71">
+        <v>1</v>
+      </c>
+      <c r="F71">
         <v>0.14959</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A72">
         <v>0</v>
       </c>
@@ -7935,10 +11312,13 @@
         <v>0.48627399999999998</v>
       </c>
       <c r="E72">
+        <v>1</v>
+      </c>
+      <c r="F72">
         <v>0.14959</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A73">
         <v>0</v>
       </c>
@@ -7952,10 +11332,13 @@
         <v>0.50106499999999998</v>
       </c>
       <c r="E73">
+        <v>1</v>
+      </c>
+      <c r="F73">
         <v>0.14798900000000001</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A74">
         <v>0</v>
       </c>
@@ -7969,10 +11352,13 @@
         <v>0.48150700000000002</v>
       </c>
       <c r="E74">
+        <v>1</v>
+      </c>
+      <c r="F74">
         <v>0.14798900000000001</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A75">
         <v>0</v>
       </c>
@@ -7986,10 +11372,13 @@
         <v>0.48250799999999999</v>
       </c>
       <c r="E75">
+        <v>1</v>
+      </c>
+      <c r="F75">
         <v>0.15398899999999999</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A76">
         <v>0</v>
       </c>
@@ -8003,10 +11392,13 @@
         <v>0.50078800000000001</v>
       </c>
       <c r="E76">
+        <v>1</v>
+      </c>
+      <c r="F76">
         <v>0.15398899999999999</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A77">
         <v>0</v>
       </c>
@@ -8020,10 +11412,13 @@
         <v>0.55447900000000006</v>
       </c>
       <c r="E77">
+        <v>1</v>
+      </c>
+      <c r="F77">
         <v>0.15526899999999999</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A78">
         <v>0</v>
       </c>
@@ -8037,10 +11432,13 @@
         <v>0.555226</v>
       </c>
       <c r="E78">
+        <v>1</v>
+      </c>
+      <c r="F78">
         <v>0.15526899999999999</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A79">
         <v>0</v>
       </c>
@@ -8054,10 +11452,13 @@
         <v>0.54507899999999998</v>
       </c>
       <c r="E79">
+        <v>1</v>
+      </c>
+      <c r="F79">
         <v>0.15706300000000001</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A80">
         <v>0</v>
       </c>
@@ -8071,10 +11472,13 @@
         <v>0.50441899999999995</v>
       </c>
       <c r="E80">
+        <v>1</v>
+      </c>
+      <c r="F80">
         <v>0.15706300000000001</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A81">
         <v>0</v>
       </c>
@@ -8088,10 +11492,13 @@
         <v>0.55210199999999998</v>
       </c>
       <c r="E81">
+        <v>1</v>
+      </c>
+      <c r="F81">
         <v>0.15928600000000001</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A82">
         <v>0</v>
       </c>
@@ -8105,10 +11512,13 @@
         <v>0.54433900000000002</v>
       </c>
       <c r="E82">
+        <v>1</v>
+      </c>
+      <c r="F82">
         <v>0.15928600000000001</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A83">
         <v>0</v>
       </c>
@@ -8122,10 +11532,13 @@
         <v>0.52158599999999999</v>
       </c>
       <c r="E83">
+        <v>1</v>
+      </c>
+      <c r="F83">
         <v>0.16251399999999999</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A84">
         <v>0</v>
       </c>
@@ -8139,10 +11552,13 @@
         <v>0.52982099999999999</v>
       </c>
       <c r="E84">
+        <v>1</v>
+      </c>
+      <c r="F84">
         <v>0.16251399999999999</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A85">
         <v>0</v>
       </c>
@@ -8156,10 +11572,13 @@
         <v>0.57327399999999995</v>
       </c>
       <c r="E85">
+        <v>1</v>
+      </c>
+      <c r="F85">
         <v>0.16420999999999999</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A86">
         <v>0</v>
       </c>
@@ -8173,10 +11592,13 @@
         <v>0.59151500000000001</v>
       </c>
       <c r="E86">
+        <v>1</v>
+      </c>
+      <c r="F86">
         <v>0.16420999999999999</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A87">
         <v>0</v>
       </c>
@@ -8190,10 +11612,13 @@
         <v>0.55674400000000002</v>
       </c>
       <c r="E87">
+        <v>1</v>
+      </c>
+      <c r="F87">
         <v>0.165191</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A88">
         <v>0</v>
       </c>
@@ -8207,10 +11632,13 @@
         <v>0.53708</v>
       </c>
       <c r="E88">
+        <v>1</v>
+      </c>
+      <c r="F88">
         <v>0.165191</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A89">
         <v>0</v>
       </c>
@@ -8224,10 +11652,13 @@
         <v>0.575295</v>
       </c>
       <c r="E89">
+        <v>1</v>
+      </c>
+      <c r="F89">
         <v>0.16659299999999999</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A90">
         <v>0</v>
       </c>
@@ -8241,10 +11672,13 @@
         <v>0.57336900000000002</v>
       </c>
       <c r="E90">
+        <v>1</v>
+      </c>
+      <c r="F90">
         <v>0.16659299999999999</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A91">
         <v>0</v>
       </c>
@@ -8258,10 +11692,13 @@
         <v>0.54507899999999998</v>
       </c>
       <c r="E91">
+        <v>1</v>
+      </c>
+      <c r="F91">
         <v>0.171767</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A92">
         <v>0</v>
       </c>
@@ -8275,10 +11712,13 @@
         <v>0.56248200000000004</v>
       </c>
       <c r="E92">
+        <v>1</v>
+      </c>
+      <c r="F92">
         <v>0.171767</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A93">
         <v>0</v>
       </c>
@@ -8292,10 +11732,13 @@
         <v>0.60776799999999997</v>
       </c>
       <c r="E93">
+        <v>1</v>
+      </c>
+      <c r="F93">
         <v>0.171264</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A94">
         <v>0</v>
       </c>
@@ -8309,10 +11752,13 @@
         <v>0.61328899999999997</v>
       </c>
       <c r="E94">
+        <v>1</v>
+      </c>
+      <c r="F94">
         <v>0.171264</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A95">
         <v>0</v>
       </c>
@@ -8326,10 +11772,13 @@
         <v>0.56138299999999997</v>
       </c>
       <c r="E95">
+        <v>1</v>
+      </c>
+      <c r="F95">
         <v>0.171816</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A96">
         <v>0</v>
       </c>
@@ -8343,10 +11792,13 @@
         <v>0.56611100000000003</v>
       </c>
       <c r="E96">
+        <v>1</v>
+      </c>
+      <c r="F96">
         <v>0.171816</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A97">
         <v>0</v>
       </c>
@@ -8360,10 +11812,13 @@
         <v>0.59385200000000005</v>
       </c>
       <c r="E97">
+        <v>1</v>
+      </c>
+      <c r="F97">
         <v>0.17511699999999999</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A98">
         <v>0</v>
       </c>
@@ -8377,10 +11832,13 @@
         <v>0.59151299999999996</v>
       </c>
       <c r="E98">
+        <v>1</v>
+      </c>
+      <c r="F98">
         <v>0.17511699999999999</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A99">
         <v>0</v>
       </c>
@@ -8394,10 +11852,13 @@
         <v>0.57797200000000004</v>
       </c>
       <c r="E99">
+        <v>1</v>
+      </c>
+      <c r="F99">
         <v>0.18023800000000001</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A100">
         <v>0</v>
       </c>
@@ -8411,10 +11872,13 @@
         <v>0.63868899999999995</v>
       </c>
       <c r="E100">
+        <v>1</v>
+      </c>
+      <c r="F100">
         <v>0.18023800000000001</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A101">
         <v>0</v>
       </c>
@@ -8428,10 +11892,13 @@
         <v>0.64845799999999998</v>
       </c>
       <c r="E101">
+        <v>1</v>
+      </c>
+      <c r="F101">
         <v>0.178588</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A102">
         <v>0</v>
       </c>
@@ -8445,10 +11912,13 @@
         <v>0.61328099999999997</v>
       </c>
       <c r="E102">
+        <v>1</v>
+      </c>
+      <c r="F102">
         <v>0.178588</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A103">
         <v>0</v>
       </c>
@@ -8462,10 +11932,13 @@
         <v>0.60777099999999995</v>
       </c>
       <c r="E103">
+        <v>1</v>
+      </c>
+      <c r="F103">
         <v>0.18215000000000001</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A104">
         <v>0</v>
       </c>
@@ -8479,10 +11952,13 @@
         <v>0.63868899999999995</v>
       </c>
       <c r="E104">
+        <v>1</v>
+      </c>
+      <c r="F104">
         <v>0.18215000000000001</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A105">
         <v>0</v>
       </c>
@@ -8496,10 +11972,13 @@
         <v>0.61705500000000002</v>
       </c>
       <c r="E105">
+        <v>1</v>
+      </c>
+      <c r="F105">
         <v>0.182253</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A106">
         <v>0</v>
       </c>
@@ -8513,10 +11992,13 @@
         <v>0.60965899999999995</v>
       </c>
       <c r="E106">
+        <v>1</v>
+      </c>
+      <c r="F106">
         <v>0.182253</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A107">
         <v>0</v>
       </c>
@@ -8530,10 +12012,13 @@
         <v>0.66255200000000003</v>
       </c>
       <c r="E107">
+        <v>1</v>
+      </c>
+      <c r="F107">
         <v>0.185167</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A108">
         <v>0</v>
       </c>
@@ -8547,10 +12032,13 @@
         <v>0.67860200000000004</v>
       </c>
       <c r="E108">
+        <v>1</v>
+      </c>
+      <c r="F108">
         <v>0.185167</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A109">
         <v>0</v>
       </c>
@@ -8564,10 +12052,13 @@
         <v>0.63905900000000004</v>
       </c>
       <c r="E109">
+        <v>1</v>
+      </c>
+      <c r="F109">
         <v>0.18523899999999999</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A110">
         <v>0</v>
       </c>
@@ -8581,10 +12072,13 @@
         <v>0.63506300000000004</v>
       </c>
       <c r="E110">
+        <v>1</v>
+      </c>
+      <c r="F110">
         <v>0.18523899999999999</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A111">
         <v>0</v>
       </c>
@@ -8598,10 +12092,13 @@
         <v>0.64489300000000005</v>
       </c>
       <c r="E111">
+        <v>1</v>
+      </c>
+      <c r="F111">
         <v>0.18631700000000001</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A112">
         <v>0</v>
       </c>
@@ -8615,10 +12112,13 @@
         <v>0.62883500000000003</v>
       </c>
       <c r="E112">
+        <v>1</v>
+      </c>
+      <c r="F112">
         <v>0.18631700000000001</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A113">
         <v>0</v>
       </c>
@@ -8632,10 +12132,13 @@
         <v>0.63561599999999996</v>
       </c>
       <c r="E113">
+        <v>1</v>
+      </c>
+      <c r="F113">
         <v>0.190417</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A114">
         <v>0</v>
       </c>
@@ -8649,10 +12152,13 @@
         <v>0.69312399999999996</v>
       </c>
       <c r="E114">
+        <v>1</v>
+      </c>
+      <c r="F114">
         <v>0.190417</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A115">
         <v>0</v>
       </c>
@@ -8666,10 +12172,13 @@
         <v>0.68135100000000004</v>
       </c>
       <c r="E115">
+        <v>1</v>
+      </c>
+      <c r="F115">
         <v>0.18912399999999999</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A116">
         <v>0</v>
       </c>
@@ -8683,10 +12192,13 @@
         <v>0.64231400000000005</v>
       </c>
       <c r="E116">
+        <v>1</v>
+      </c>
+      <c r="F116">
         <v>0.18912399999999999</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A117">
         <v>0</v>
       </c>
@@ -8700,10 +12212,13 @@
         <v>0.69075299999999995</v>
       </c>
       <c r="E117">
+        <v>1</v>
+      </c>
+      <c r="F117">
         <v>0.19407199999999999</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A118">
         <v>0</v>
       </c>
@@ -8717,10 +12232,13 @@
         <v>0.66771999999999998</v>
       </c>
       <c r="E118">
+        <v>1</v>
+      </c>
+      <c r="F118">
         <v>0.19407199999999999</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A119">
         <v>0</v>
       </c>
@@ -8734,10 +12252,13 @@
         <v>0.64953499999999997</v>
       </c>
       <c r="E119">
+        <v>1</v>
+      </c>
+      <c r="F119">
         <v>0.19309299999999999</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A120">
         <v>0</v>
       </c>
@@ -8751,10 +12272,13 @@
         <v>0.68949400000000005</v>
       </c>
       <c r="E120">
+        <v>1</v>
+      </c>
+      <c r="F120">
         <v>0.19309299999999999</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A121">
         <v>0</v>
       </c>
@@ -8768,10 +12292,13 @@
         <v>0.69545699999999999</v>
       </c>
       <c r="E121">
+        <v>1</v>
+      </c>
+      <c r="F121">
         <v>0.193748</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A122">
         <v>0</v>
       </c>
@@ -8785,10 +12312,13 @@
         <v>0.68223100000000003</v>
       </c>
       <c r="E122">
+        <v>1</v>
+      </c>
+      <c r="F122">
         <v>0.193748</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A123">
         <v>0</v>
       </c>
@@ -8802,10 +12332,13 @@
         <v>0.67664999999999997</v>
       </c>
       <c r="E123">
+        <v>1</v>
+      </c>
+      <c r="F123">
         <v>0.19964999999999999</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A124">
         <v>0</v>
       </c>
@@ -8819,10 +12352,13 @@
         <v>0.69674999999999998</v>
       </c>
       <c r="E124">
+        <v>1</v>
+      </c>
+      <c r="F124">
         <v>0.19964999999999999</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A125">
         <v>0</v>
       </c>
@@ -8836,10 +12372,13 @@
         <v>0.67273099999999997</v>
       </c>
       <c r="E125">
+        <v>1</v>
+      </c>
+      <c r="F125">
         <v>0.197572</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A126">
         <v>0</v>
       </c>
@@ -8853,10 +12392,13 @@
         <v>0.68223699999999998</v>
       </c>
       <c r="E126">
+        <v>1</v>
+      </c>
+      <c r="F126">
         <v>0.197572</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A127">
         <v>0</v>
       </c>
@@ -8870,10 +12412,13 @@
         <v>0.70983700000000005</v>
       </c>
       <c r="E127">
+        <v>1</v>
+      </c>
+      <c r="F127">
         <v>0.19597500000000001</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A128">
         <v>0</v>
       </c>
@@ -8887,10 +12432,13 @@
         <v>0.68949400000000005</v>
       </c>
       <c r="E128">
+        <v>1</v>
+      </c>
+      <c r="F128">
         <v>0.19597500000000001</v>
       </c>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A129">
         <v>0</v>
       </c>
@@ -8904,10 +12452,13 @@
         <v>0.66255900000000001</v>
       </c>
       <c r="E129">
+        <v>1</v>
+      </c>
+      <c r="F129">
         <v>0.20378199999999999</v>
       </c>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A130">
         <v>0</v>
       </c>
@@ -8921,10 +12472,13 @@
         <v>0.72215499999999999</v>
       </c>
       <c r="E130">
+        <v>1</v>
+      </c>
+      <c r="F130">
         <v>0.20378199999999999</v>
       </c>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A131">
         <v>0</v>
       </c>
@@ -8938,10 +12492,13 @@
         <v>0.69128299999999998</v>
       </c>
       <c r="E131">
+        <v>1</v>
+      </c>
+      <c r="F131">
         <v>0.20366300000000001</v>
       </c>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A132">
         <v>0</v>
       </c>
@@ -8955,10 +12512,13 @@
         <v>0.68949400000000005</v>
       </c>
       <c r="E132">
+        <v>1</v>
+      </c>
+      <c r="F132">
         <v>0.20366300000000001</v>
       </c>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A133">
         <v>0</v>
       </c>
@@ -8972,10 +12532,13 @@
         <v>0.73768400000000001</v>
       </c>
       <c r="E133">
+        <v>1</v>
+      </c>
+      <c r="F133">
         <v>0.201154</v>
       </c>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A134">
         <v>0</v>
       </c>
@@ -8989,10 +12552,13 @@
         <v>0.72941100000000003</v>
       </c>
       <c r="E134">
+        <v>1</v>
+      </c>
+      <c r="F134">
         <v>0.201154</v>
       </c>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A135">
         <v>0</v>
       </c>
@@ -9006,10 +12572,13 @@
         <v>0.68664999999999998</v>
       </c>
       <c r="E135">
+        <v>1</v>
+      </c>
+      <c r="F135">
         <v>0.20475399999999999</v>
       </c>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A136">
         <v>0</v>
       </c>
@@ -9023,10 +12592,13 @@
         <v>0.73666100000000001</v>
       </c>
       <c r="E136">
+        <v>1</v>
+      </c>
+      <c r="F136">
         <v>0.20475399999999999</v>
       </c>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A137">
         <v>0</v>
       </c>
@@ -9040,10 +12612,13 @@
         <v>0.70954499999999998</v>
       </c>
       <c r="E137">
+        <v>1</v>
+      </c>
+      <c r="F137">
         <v>0.20635500000000001</v>
       </c>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A138">
         <v>0</v>
       </c>
@@ -9057,10 +12632,13 @@
         <v>0.70763699999999996</v>
       </c>
       <c r="E138">
+        <v>1</v>
+      </c>
+      <c r="F138">
         <v>0.20635500000000001</v>
       </c>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A139">
         <v>0</v>
       </c>
@@ -9074,10 +12652,13 @@
         <v>0.76123300000000005</v>
       </c>
       <c r="E139">
+        <v>1</v>
+      </c>
+      <c r="F139">
         <v>0.207957</v>
       </c>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A140">
         <v>0</v>
       </c>
@@ -9091,10 +12672,13 @@
         <v>0.76207199999999997</v>
       </c>
       <c r="E140">
+        <v>1</v>
+      </c>
+      <c r="F140">
         <v>0.207957</v>
       </c>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A141">
         <v>0</v>
       </c>
@@ -9108,10 +12692,13 @@
         <v>0.70055999999999996</v>
       </c>
       <c r="E141">
+        <v>1</v>
+      </c>
+      <c r="F141">
         <v>0.20736099999999999</v>
       </c>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A142">
         <v>0</v>
       </c>
@@ -9125,10 +12712,13 @@
         <v>0.72577999999999998</v>
       </c>
       <c r="E142">
+        <v>1</v>
+      </c>
+      <c r="F142">
         <v>0.20736099999999999</v>
       </c>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A143">
         <v>0</v>
       </c>
@@ -9142,10 +12732,13 @@
         <v>0.71911400000000003</v>
       </c>
       <c r="E143">
+        <v>1</v>
+      </c>
+      <c r="F143">
         <v>0.20985899999999999</v>
       </c>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A144">
         <v>0</v>
       </c>
@@ -9159,10 +12752,13 @@
         <v>0.72215499999999999</v>
       </c>
       <c r="E144">
+        <v>1</v>
+      </c>
+      <c r="F144">
         <v>0.20985899999999999</v>
       </c>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A145">
         <v>0</v>
       </c>
@@ -9176,10 +12772,13 @@
         <v>0.765934</v>
       </c>
       <c r="E145">
+        <v>1</v>
+      </c>
+      <c r="F145">
         <v>0.21141099999999999</v>
       </c>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A146">
         <v>0</v>
       </c>
@@ -9193,10 +12792,13 @@
         <v>0.76207199999999997</v>
       </c>
       <c r="E146">
+        <v>1</v>
+      </c>
+      <c r="F146">
         <v>0.21141099999999999</v>
       </c>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A147">
         <v>0</v>
       </c>
@@ -9210,10 +12812,13 @@
         <v>0.733039</v>
       </c>
       <c r="E147">
+        <v>1</v>
+      </c>
+      <c r="F147">
         <v>0.21396999999999999</v>
       </c>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A148">
         <v>0</v>
       </c>
@@ -9227,10 +12832,13 @@
         <v>0.75481600000000004</v>
       </c>
       <c r="E148">
+        <v>1</v>
+      </c>
+      <c r="F148">
         <v>0.21396999999999999</v>
       </c>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A149">
         <v>0</v>
       </c>
@@ -9244,10 +12852,13 @@
         <v>0.76087700000000003</v>
       </c>
       <c r="E149">
+        <v>1</v>
+      </c>
+      <c r="F149">
         <v>0.21227199999999999</v>
       </c>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A150">
         <v>0</v>
       </c>
@@ -9261,10 +12872,13 @@
         <v>0.75459799999999999</v>
       </c>
       <c r="E150">
+        <v>1</v>
+      </c>
+      <c r="F150">
         <v>0.21227199999999999</v>
       </c>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A151">
         <v>0</v>
       </c>
@@ -9278,10 +12892,13 @@
         <v>0.77478899999999995</v>
       </c>
       <c r="E151">
+        <v>1</v>
+      </c>
+      <c r="F151">
         <v>0.21137300000000001</v>
       </c>
     </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A152">
         <v>0</v>
       </c>
@@ -9295,10 +12912,13 @@
         <v>0.75118499999999999</v>
       </c>
       <c r="E152">
+        <v>1</v>
+      </c>
+      <c r="F152">
         <v>0.21137300000000001</v>
       </c>
     </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A153">
         <v>0</v>
       </c>
@@ -9312,10 +12932,13 @@
         <v>0.73773999999999995</v>
       </c>
       <c r="E153">
+        <v>1</v>
+      </c>
+      <c r="F153">
         <v>0.217974</v>
       </c>
     </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A154">
         <v>0</v>
       </c>
@@ -9329,10 +12952,13 @@
         <v>0.76207199999999997</v>
       </c>
       <c r="E154">
+        <v>1</v>
+      </c>
+      <c r="F154">
         <v>0.217974</v>
       </c>
     </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A155">
         <v>0</v>
       </c>
@@ -9346,10 +12972,13 @@
         <v>0.77062900000000001</v>
       </c>
       <c r="E155">
+        <v>1</v>
+      </c>
+      <c r="F155">
         <v>0.217475</v>
       </c>
     </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A156">
         <v>0</v>
       </c>
@@ -9363,10 +12992,13 @@
         <v>0.78384600000000004</v>
       </c>
       <c r="E156">
+        <v>1</v>
+      </c>
+      <c r="F156">
         <v>0.217475</v>
       </c>
     </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A157">
         <v>0</v>
       </c>
@@ -9380,10 +13012,13 @@
         <v>0.78407300000000002</v>
       </c>
       <c r="E157">
+        <v>1</v>
+      </c>
+      <c r="F157">
         <v>0.21328900000000001</v>
       </c>
     </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A158">
         <v>0</v>
       </c>
@@ -9397,10 +13032,13 @@
         <v>0.74755400000000005</v>
       </c>
       <c r="E158">
+        <v>1</v>
+      </c>
+      <c r="F158">
         <v>0.21328900000000001</v>
       </c>
     </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A159">
         <v>0</v>
       </c>
@@ -9414,10 +13052,13 @@
         <v>0.76123300000000005</v>
       </c>
       <c r="E159">
+        <v>1</v>
+      </c>
+      <c r="F159">
         <v>0.220836</v>
       </c>
     </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A160">
         <v>0</v>
       </c>
@@ -9431,10 +13072,13 @@
         <v>0.78020800000000001</v>
       </c>
       <c r="E160">
+        <v>1</v>
+      </c>
+      <c r="F160">
         <v>0.220836</v>
       </c>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A161">
         <v>0</v>
       </c>
@@ -9448,10 +13092,13 @@
         <v>0.75652299999999995</v>
       </c>
       <c r="E161">
+        <v>1</v>
+      </c>
+      <c r="F161">
         <v>0.22128900000000001</v>
       </c>
     </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A162">
         <v>0</v>
       </c>
@@ -9465,10 +13112,13 @@
         <v>0.82013800000000003</v>
       </c>
       <c r="E162">
+        <v>1</v>
+      </c>
+      <c r="F162">
         <v>0.22128900000000001</v>
       </c>
     </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A163">
         <v>0</v>
       </c>
@@ -9482,10 +13132,13 @@
         <v>0.78870799999999996</v>
       </c>
       <c r="E163">
+        <v>1</v>
+      </c>
+      <c r="F163">
         <v>0.216007</v>
       </c>
     </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A164">
         <v>0</v>
       </c>
@@ -9499,10 +13152,13 @@
         <v>0.76933300000000004</v>
       </c>
       <c r="E164">
+        <v>1</v>
+      </c>
+      <c r="F164">
         <v>0.216007</v>
       </c>
     </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A165">
         <v>0</v>
       </c>
@@ -9516,10 +13172,13 @@
         <v>0.77015400000000001</v>
       </c>
       <c r="E165">
+        <v>1</v>
+      </c>
+      <c r="F165">
         <v>0.21900900000000001</v>
       </c>
     </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A166">
         <v>0</v>
       </c>
@@ -9533,10 +13192,13 @@
         <v>0.76569799999999999</v>
       </c>
       <c r="E166">
+        <v>1</v>
+      </c>
+      <c r="F166">
         <v>0.21900900000000001</v>
       </c>
     </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A167">
         <v>0</v>
       </c>
@@ -9550,10 +13212,13 @@
         <v>0.79883400000000004</v>
       </c>
       <c r="E167">
+        <v>1</v>
+      </c>
+      <c r="F167">
         <v>0.22450600000000001</v>
       </c>
     </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A168">
         <v>0</v>
       </c>
@@ -9567,10 +13232,13 @@
         <v>0.83827200000000002</v>
       </c>
       <c r="E168">
+        <v>1</v>
+      </c>
+      <c r="F168">
         <v>0.22450600000000001</v>
       </c>
     </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A169">
         <v>0</v>
       </c>
@@ -9584,10 +13252,13 @@
         <v>0.77943700000000005</v>
       </c>
       <c r="E169">
+        <v>1</v>
+      </c>
+      <c r="F169">
         <v>0.22171099999999999</v>
       </c>
     </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A170">
         <v>0</v>
       </c>
@@ -9601,10 +13272,13 @@
         <v>0.78747199999999995</v>
       </c>
       <c r="E170">
+        <v>1</v>
+      </c>
+      <c r="F170">
         <v>0.22171099999999999</v>
       </c>
     </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A171">
         <v>0</v>
       </c>
@@ -9618,10 +13292,13 @@
         <v>0.77015400000000001</v>
       </c>
       <c r="E171">
+        <v>1</v>
+      </c>
+      <c r="F171">
         <v>0.22245000000000001</v>
       </c>
     </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A172">
         <v>0</v>
       </c>
@@ -9635,10 +13312,13 @@
         <v>0.75844599999999995</v>
       </c>
       <c r="E172">
+        <v>1</v>
+      </c>
+      <c r="F172">
         <v>0.22245000000000001</v>
       </c>
     </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A173">
         <v>0</v>
       </c>
@@ -9652,10 +13332,13 @@
         <v>0.81191000000000002</v>
       </c>
       <c r="E173">
+        <v>1</v>
+      </c>
+      <c r="F173">
         <v>0.22345100000000001</v>
       </c>
     </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A174">
         <v>0</v>
       </c>
@@ -9669,10 +13352,13 @@
         <v>0.80924600000000002</v>
       </c>
       <c r="E174">
+        <v>1</v>
+      </c>
+      <c r="F174">
         <v>0.22345100000000001</v>
       </c>
     </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A175">
         <v>0</v>
       </c>
@@ -9686,10 +13372,13 @@
         <v>0.76123600000000002</v>
       </c>
       <c r="E175">
+        <v>1</v>
+      </c>
+      <c r="F175">
         <v>0.22894900000000001</v>
       </c>
     </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A176">
         <v>0</v>
       </c>
@@ -9703,10 +13392,13 @@
         <v>0.820133</v>
       </c>
       <c r="E176">
+        <v>1</v>
+      </c>
+      <c r="F176">
         <v>0.22894900000000001</v>
       </c>
     </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A177">
         <v>0</v>
       </c>
@@ -9720,10 +13412,13 @@
         <v>0.789412</v>
       </c>
       <c r="E177">
+        <v>1</v>
+      </c>
+      <c r="F177">
         <v>0.22720399999999999</v>
       </c>
     </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A178">
         <v>0</v>
       </c>
@@ -9737,6 +13432,9 @@
         <v>0.80199399999999998</v>
       </c>
       <c r="E178">
+        <v>1</v>
+      </c>
+      <c r="F178">
         <v>0.22720399999999999</v>
       </c>
     </row>
